--- a/bp/БП иППлан_3.xlsx
+++ b/bp/БП иППлан_3.xlsx
@@ -751,6 +751,8 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,8 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -787,8 +787,8 @@
           <c:yMode val="edge"/>
           <c:x val="5.106382978723404E-2"/>
           <c:y val="0.19615384615384615"/>
-          <c:w val="0.42978723404255326"/>
-          <c:h val="0.77692307692307716"/>
+          <c:w val="0.42978723404255331"/>
+          <c:h val="0.77692307692307749"/>
         </c:manualLayout>
       </c:layout>
       <c:doughnutChart>
@@ -988,7 +988,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="5.6777796392472393E-3"/>
-                  <c:y val="-0.15742984050070669"/>
+                  <c:y val="-0.15742984050070674"/>
                 </c:manualLayout>
               </c:layout>
               <c:showPercent val="1"/>
@@ -1087,9 +1087,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.51276595744680864"/>
-          <c:y val="0.37307692307692314"/>
+          <c:y val="0.37307692307692325"/>
           <c:w val="0.44468085106382982"/>
-          <c:h val="0.36923076923076936"/>
+          <c:h val="0.36923076923076942"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1144,7 +1144,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000022" r="0.75000000000000022" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1161,9 +1161,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2600083213674571E-2"/>
+          <c:x val="2.2600083213674578E-2"/>
           <c:y val="0.1440740157480315"/>
-          <c:w val="0.89069108761071858"/>
+          <c:w val="0.8906910876107188"/>
           <c:h val="0.59378754738990958"/>
         </c:manualLayout>
       </c:layout>
@@ -1234,7 +1234,7 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.3697897854511303E-2"/>
+                  <c:x val="5.3697897854511324E-2"/>
                   <c:y val="-6.5779828880906499E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1256,8 +1256,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.2038735983690112"/>
-                  <c:y val="-0.35448168676800595"/>
+                  <c:x val="0.20387359836901117"/>
+                  <c:y val="-0.35448168676800601"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1278,8 +1278,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.30456243428287066"/>
-                  <c:y val="-0.20182949940925057"/>
+                  <c:x val="0.30456243428287078"/>
+                  <c:y val="-0.2018294994092506"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1300,8 +1300,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.21106942085159497"/>
-                  <c:y val="-3.0165489973344853E-2"/>
+                  <c:x val="0.21106942085159502"/>
+                  <c:y val="-3.0165489973344849E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1383,8 +1383,8 @@
         </c:ser>
         <c:dropLines/>
         <c:marker val="1"/>
-        <c:axId val="141716864"/>
-        <c:axId val="141378688"/>
+        <c:axId val="129021824"/>
+        <c:axId val="129023360"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1454,11 +1454,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144841728"/>
-        <c:axId val="144777216"/>
+        <c:axId val="128912384"/>
+        <c:axId val="128910464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="141716864"/>
+        <c:axId val="129021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141378688"/>
+        <c:crossAx val="129023360"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -1490,7 +1490,7 @@
         <c:majorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141378688"/>
+        <c:axId val="129023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,12 +1498,12 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141716864"/>
+        <c:crossAx val="129021824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144777216"/>
+        <c:axId val="128910464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,18 +1539,18 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.80172303893062835"/>
-              <c:y val="2.6227034120734908E-2"/>
+              <c:y val="2.6227034120734911E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144841728"/>
+        <c:crossAx val="128912384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="144841728"/>
+        <c:axId val="128912384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1558,8 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144777216"/>
+        <c:crossAx val="128910464"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
@@ -1567,7 +1568,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1927,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1956,22 +1957,22 @@
       <c r="D2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="94" t="s">
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="95"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="97"/>
       <c r="U2" s="18"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
@@ -3687,10 +3688,10 @@
       <c r="H51" s="66"/>
       <c r="I51" s="66"/>
       <c r="J51" s="66"/>
-      <c r="L51" s="93" t="s">
+      <c r="L51" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="M51" s="93"/>
+      <c r="M51" s="95"/>
       <c r="U51" s="18"/>
     </row>
     <row r="52" spans="2:21" ht="15">
@@ -3745,7 +3746,7 @@
       <c r="C56" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="96">
+      <c r="D56" s="92">
         <v>41518</v>
       </c>
       <c r="E56">
@@ -3754,12 +3755,12 @@
       <c r="F56">
         <v>2</v>
       </c>
-      <c r="G56" s="97">
+      <c r="G56" s="93">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:21">
-      <c r="D57" s="96">
+      <c r="D57" s="92">
         <v>41640</v>
       </c>
       <c r="E57">
@@ -3768,7 +3769,7 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" s="97">
+      <c r="G57" s="93">
         <f>I43/1000</f>
         <v>0.6</v>
       </c>
@@ -3777,7 +3778,7 @@
       <c r="C58" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="96">
+      <c r="D58" s="92">
         <v>41821</v>
       </c>
       <c r="E58">
@@ -3786,7 +3787,7 @@
       <c r="F58">
         <v>7</v>
       </c>
-      <c r="G58" s="97">
+      <c r="G58" s="93">
         <f>K43/1000</f>
         <v>4.5</v>
       </c>
@@ -3795,7 +3796,7 @@
       <c r="C59" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="96">
+      <c r="D59" s="92">
         <v>42005</v>
       </c>
       <c r="E59">
@@ -3804,7 +3805,7 @@
       <c r="F59">
         <v>10</v>
       </c>
-      <c r="G59" s="97">
+      <c r="G59" s="93">
         <f>M43/1000</f>
         <v>7.3</v>
       </c>
@@ -3813,7 +3814,7 @@
       <c r="C60" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="96">
+      <c r="D60" s="92">
         <v>42186</v>
       </c>
       <c r="E60">
@@ -3822,7 +3823,7 @@
       <c r="F60">
         <v>10</v>
       </c>
-      <c r="G60" s="97">
+      <c r="G60" s="93">
         <f>O43/1000</f>
         <v>7.5</v>
       </c>
@@ -3835,9 +3836,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="L51:M51"/>
-    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
